--- a/gropin/schema/metadataschema187.xlsx
+++ b/gropin/schema/metadataschema187.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Listeria monocytogenes in/on Brain Heart Infusion broth (gropin ID: 187 )</t>
+          <t>Gropin secondary growth model for Listeria monocytogenes in/on Brain Heart Infusion broth (gropin ID: 187 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(5.5055,6.49350649350649,length.out=21)</t>
+          <t>seq(5.5055,6.49350649350649,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(4.004,9.99000999000999,length.out=21)</t>
+          <t>seq(4.004,9.99000999000999,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.1001,0.899100899100899,length.out=21)</t>
+          <t>seq(0.1001,0.899100899100899,length.out=10)</t>
         </is>
       </c>
     </row>
